--- a/menu_extraction/replys.xlsx
+++ b/menu_extraction/replys.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/YShimada-MBP16/Documents/Code_Github/DL_for_ImageData_and_Finetuning/menu_extraction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{E5225BF6-062C-AA4A-9F12-3899686FA49D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9061C7AC-B90E-734F-93C6-13864726AC50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37380" yWindow="500" windowWidth="29360" windowHeight="21100" activeTab="6" xr2:uid="{6C071CEF-E8B8-6F45-8AC6-4D845A53AE75}"/>
+    <workbookView xWindow="40740" yWindow="500" windowWidth="29360" windowHeight="21100" activeTab="2" xr2:uid="{6C071CEF-E8B8-6F45-8AC6-4D845A53AE75}"/>
   </bookViews>
   <sheets>
     <sheet name="model" sheetId="6" r:id="rId1"/>
     <sheet name="about_data" sheetId="5" r:id="rId2"/>
-    <sheet name="menu1" sheetId="1" r:id="rId3"/>
-    <sheet name="menu2" sheetId="2" r:id="rId4"/>
-    <sheet name="menu3" sheetId="4" r:id="rId5"/>
-    <sheet name="menu4" sheetId="3" r:id="rId6"/>
-    <sheet name="Summary" sheetId="7" r:id="rId7"/>
+    <sheet name="Prompt" sheetId="8" r:id="rId3"/>
+    <sheet name="menu1" sheetId="1" r:id="rId4"/>
+    <sheet name="menu2" sheetId="2" r:id="rId5"/>
+    <sheet name="menu3" sheetId="4" r:id="rId6"/>
+    <sheet name="menu4" sheetId="3" r:id="rId7"/>
+    <sheet name="Summary" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="549">
   <si>
     <t>メニュー名</t>
   </si>
@@ -1786,6 +1786,347 @@
     <rPh sb="76" eb="78">
       <t xml:space="preserve">ヘイキン </t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>利用ツール</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">リヨウツール </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OpenAI API, Paddle OCR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gpt-4o-mini</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OpenAI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VM with OCR Box</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大迫力！1ポンド(450g)のステーキ。焼き加減はレア・ミディアム・ウェルダンより1つお選びください</t>
+  </si>
+  <si>
+    <t>ダイナソー1ポンドカットステーキ</t>
+  </si>
+  <si>
+    <t>1/2ポンド(225g)のホ切ステーキ。焼き加減はレア・ミディアム・ウェルダンより1つお選びください</t>
+  </si>
+  <si>
+    <t>オリジナルハンバーグを豪華に3枚！1ポンド(450g)の迫力ハンバーグ</t>
+  </si>
+  <si>
+    <t>スペアリブをトロトロになるまで煮込んで焼き上げました！700g(食込)</t>
+  </si>
+  <si>
+    <t>本日の肉付き肉（要予約）</t>
+  </si>
+  <si>
+    <t>現代肉と肉の良さの合併肉！贅沢にふっ切り！1kg</t>
+  </si>
+  <si>
+    <t>やわらかさが自慢のステーキ 200g</t>
+  </si>
+  <si>
+    <t>ボンド(450g)のステーキ</t>
+  </si>
+  <si>
+    <t>3769 円</t>
+  </si>
+  <si>
+    <t>ダイナソー1カットステーキ</t>
+  </si>
+  <si>
+    <t>ボンド(225g)の1ポンドステーキ</t>
+  </si>
+  <si>
+    <t>2213 円</t>
+  </si>
+  <si>
+    <t>ボンド(450g)の特製ハンバーグ</t>
+  </si>
+  <si>
+    <t>2504 円</t>
+  </si>
+  <si>
+    <t>ダイナソー-BBQテリヤキ</t>
+  </si>
+  <si>
+    <t>スペシャルアトロ口にはタロにすって焼き上げたし</t>
+  </si>
+  <si>
+    <t>本日の付け合わせ肉</t>
+  </si>
+  <si>
+    <t>その他お肉に合わせたお料理</t>
+  </si>
+  <si>
+    <t>7564 円</t>
+  </si>
+  <si>
+    <t>柔らかく旨味のある肉</t>
+  </si>
+  <si>
+    <t>サーモンとアボカドのクリーミーきのこソース</t>
+  </si>
+  <si>
+    <t>マグロとイカのカルパッチョ</t>
+  </si>
+  <si>
+    <t>パリパリチキンの彩りズザ</t>
+  </si>
+  <si>
+    <t>生ハムのブレスケッタ</t>
+  </si>
+  <si>
+    <t>エビサラダ</t>
+  </si>
+  <si>
+    <t>ふふふマヨのつまみ</t>
+  </si>
+  <si>
+    <t>辛袋豆腐</t>
+  </si>
+  <si>
+    <t>春巻き3本</t>
+  </si>
+  <si>
+    <t>ギョーザ</t>
+  </si>
+  <si>
+    <t>活ダコのよしやで</t>
+  </si>
+  <si>
+    <t>シーフードのフライ盛り合わせ</t>
+  </si>
+  <si>
+    <t>自家製のツナマスタードソース</t>
+  </si>
+  <si>
+    <t>モッツァレラチーズ</t>
+  </si>
+  <si>
+    <t>シーザーサラダ</t>
+  </si>
+  <si>
+    <t>氷 [大きさ上]</t>
+  </si>
+  <si>
+    <t>ハンバーグとエビフライ</t>
+  </si>
+  <si>
+    <t>エビマヨ丼</t>
+  </si>
+  <si>
+    <t>華の弁当</t>
+  </si>
+  <si>
+    <t>めんたいスパゲッティ</t>
+  </si>
+  <si>
+    <t>スパゲティミートソース（ペペロンチーノ）</t>
+  </si>
+  <si>
+    <t>キノコとツナのペペロンチーノ</t>
+  </si>
+  <si>
+    <t>エビマカロニグラタン</t>
+  </si>
+  <si>
+    <t>五目あんかけ焼きそば</t>
+  </si>
+  <si>
+    <t>豚肉細切りあんかけ焼きそば</t>
+  </si>
+  <si>
+    <t>デミタマライス</t>
+  </si>
+  <si>
+    <t>あずまキステーキ弁当</t>
+  </si>
+  <si>
+    <t>ハンバーグ定食</t>
+  </si>
+  <si>
+    <t>MIX弁当</t>
+  </si>
+  <si>
+    <t>鶏の唐揚げ弁当</t>
+  </si>
+  <si>
+    <t>エビフライ弁当</t>
+  </si>
+  <si>
+    <t>謎の丼弁当</t>
+  </si>
+  <si>
+    <t>omlet with a filling of ketchup-seasoned fried rice</t>
+  </si>
+  <si>
+    <t>ビーフカレー</t>
+  </si>
+  <si>
+    <t>beef curry</t>
+  </si>
+  <si>
+    <t>ビーフシチュー</t>
+  </si>
+  <si>
+    <t>beef stew</t>
+  </si>
+  <si>
+    <t>ハンバーグ</t>
+  </si>
+  <si>
+    <t>hamburger steak</t>
+  </si>
+  <si>
+    <t>コーンスープセット</t>
+  </si>
+  <si>
+    <t>corn soup set</t>
+  </si>
+  <si>
+    <t>ポークジャンボ</t>
+  </si>
+  <si>
+    <t>Pork Jamboree (Pork Singer Diner)</t>
+  </si>
+  <si>
+    <t>和風海鮮丼</t>
+  </si>
+  <si>
+    <t>Japanese-style seafood Donburi</t>
+  </si>
+  <si>
+    <t>ナポリタン</t>
+  </si>
+  <si>
+    <t>スパゲッティミートソース</t>
+  </si>
+  <si>
+    <t>ketchup-seasoned fried rice with a filling of</t>
+  </si>
+  <si>
+    <t>たこやき</t>
+  </si>
+  <si>
+    <t>Japanese takoyaki/octopus balls</t>
+  </si>
+  <si>
+    <t>beef hamburg steak</t>
+  </si>
+  <si>
+    <t>ラーメンセット</t>
+  </si>
+  <si>
+    <t>noodle with dipping sauce</t>
+  </si>
+  <si>
+    <t>スパゲティ</t>
+  </si>
+  <si>
+    <t>ミートソース</t>
+  </si>
+  <si>
+    <t>焼き芋と蒸しレンコンのソイマスタードサラダ</t>
+  </si>
+  <si>
+    <t>長時間蒸し上げた芋とレンコンとサクサクのクルミをしっかりと混ぜリズミカルな表情です。</t>
+  </si>
+  <si>
+    <t>専門店の味を自宅で楽しむセットメニューです。</t>
+  </si>
+  <si>
+    <t>生クリームの本分で甘みが引き立った季節のきのこを使用したクリームパスタ。</t>
+  </si>
+  <si>
+    <t>有機ミニサラダセット</t>
+  </si>
+  <si>
+    <t>サラダと主菜、パンのセットとなります。</t>
+  </si>
+  <si>
+    <t>自家製ししおのチューリップ唐揚げ</t>
+  </si>
+  <si>
+    <t>天然の味付けが豊かな、食べごたえのある唐揚げです。</t>
+  </si>
+  <si>
+    <t>平飼い鶏季節野菜のサラダ煮込み</t>
+  </si>
+  <si>
+    <t>平飼いの鶏と旬の野菜が優しく煮込まれています。</t>
+  </si>
+  <si>
+    <t>お子様のお誕生日や特別な日に。</t>
+  </si>
+  <si>
+    <t>厳選した野菜を使ったカレー。</t>
+  </si>
+  <si>
+    <t>サクサクとした食感の代替肉を使った唐揚げ風。</t>
+  </si>
+  <si>
+    <t>スープ</t>
+  </si>
+  <si>
+    <t>旬野菜をたっぷり取り入れた温かいスープ。</t>
+  </si>
+  <si>
+    <t>焼き芋と蒸しレインボーのパーマカルチャーサラダ</t>
+  </si>
+  <si>
+    <t>野菜の色彩と食感にこだわったサラダ</t>
+  </si>
+  <si>
+    <t>ローストチキンのチキンサラダ</t>
+  </si>
+  <si>
+    <t>白ワインのドレッシングで仕上げたワンプレートのサラダ</t>
+  </si>
+  <si>
+    <t>きのこたちのクリームパスタ</t>
+  </si>
+  <si>
+    <t>クリーミーなソースと野菜の組み合わせが楽しめるパスタ</t>
+  </si>
+  <si>
+    <t>サラダの盛り合わせ。オーガニック野菜使用</t>
+  </si>
+  <si>
+    <t>Soup</t>
+  </si>
+  <si>
+    <t>子供向けのボリューム満点プレート</t>
+  </si>
+  <si>
+    <t>自家製ひしおのメニュー唐揚風</t>
+  </si>
+  <si>
+    <t>国産鶏肉を使った特製の唐揚げ</t>
+  </si>
+  <si>
+    <t>豆とトマトを使用したヘルシーなカレー</t>
+  </si>
+  <si>
+    <t>サクッと揚がった大豆ミートを使用した唐揚げ</t>
+  </si>
+  <si>
+    <t>メニュー画像が入力されます。記載されているメニュー情報全てを抽出するのが目的です。「メニュー名」「内容説明」「価格」を以下のjson形式で出力してください。記載がない部分は「null」と出力してください。
+[{
+"メニュー名": "'唐揚げ'等のメニューの名前",
+"内容説明": "メニュー内容の説明。記載がなければ'null'とする",
+"価格": "メニューに対応した価格",
+}]</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1851,7 +2192,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1870,8 +2211,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -2056,13 +2409,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2150,9 +2534,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2188,6 +2569,54 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2523,10 +2952,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDED4028-7AD8-534D-904A-07ACC9A09BEB}">
-  <dimension ref="B2:C4"/>
+  <dimension ref="B2:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2558,6 +2987,22 @@
         <v>433</v>
       </c>
     </row>
+    <row r="7" spans="2:3">
+      <c r="B7" t="s">
+        <v>440</v>
+      </c>
+      <c r="C7" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>442</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2568,7 +3013,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A52E75C-E5A3-1940-86E5-066300C04D83}">
   <dimension ref="B3:V12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
@@ -2728,14 +3173,38 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CAAC7F0-FA4F-3142-8049-AB09B393D69A}">
+  <dimension ref="C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="3" max="3" width="98" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:3" ht="168">
+      <c r="C4" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65928973-CE79-0B4A-AD9F-8E4D1D2592B2}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2747,404 +3216,567 @@
     <col min="6" max="6" width="50.5703125" style="1" customWidth="1"/>
     <col min="8" max="8" width="18.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="50.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" customWidth="1"/>
+    <col min="12" max="12" width="34.140625" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" customWidth="1"/>
+    <col min="14" max="14" width="16.5703125" customWidth="1"/>
+    <col min="15" max="15" width="34.140625" customWidth="1"/>
+    <col min="16" max="16" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="22" thickBot="1">
-      <c r="B1" s="18" t="s">
+    <row r="1" spans="1:16" ht="22" thickBot="1">
+      <c r="B1" s="41" t="s">
+        <v>431</v>
+      </c>
+      <c r="C1" s="42"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="45" t="s">
+        <v>443</v>
+      </c>
+      <c r="L1" s="46"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="47"/>
+    </row>
+    <row r="2" spans="1:16" ht="22" thickBot="1">
+      <c r="B2" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="18" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="19" t="s">
+      <c r="F2" s="19"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="20"/>
-    </row>
-    <row r="2" spans="1:10" ht="22" thickBot="1">
-      <c r="B2" s="12" t="s">
+      <c r="I2" s="19"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="19"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="O2" s="19"/>
+      <c r="P2" s="20"/>
+    </row>
+    <row r="3" spans="1:16" ht="22" thickBot="1">
+      <c r="B3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J3" s="16" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="63">
-      <c r="A3" s="25">
+      <c r="K3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="M3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="P3" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="63">
+      <c r="A4" s="25">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="25">
+      <c r="K4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="63">
+      <c r="A5" s="25">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="3" t="s">
+      <c r="F5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="3" t="s">
+      <c r="I5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="63">
-      <c r="A5" s="25">
+      <c r="K5" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="63">
+      <c r="A6" s="25">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="63">
-      <c r="A6" s="25">
+      <c r="K6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="63">
+      <c r="A7" s="25">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="68" customHeight="1">
-      <c r="A7" s="25">
+      <c r="K7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="M7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="N7" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="68" customHeight="1">
+      <c r="A8" s="25">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="3" t="s">
+      <c r="F8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J7" s="3" t="s">
+      <c r="I8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="63">
-      <c r="A8" s="25">
+      <c r="K8" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="64" thickBot="1">
+      <c r="A9" s="25">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="63">
-      <c r="A9" s="25">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="K9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="63">
+      <c r="A10" s="25">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="63">
-      <c r="A10" s="25">
+    <row r="11" spans="1:16" ht="63">
+      <c r="A11" s="25">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J11" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="22" thickBot="1">
-      <c r="A11" s="25">
+    <row r="12" spans="1:16" ht="22" thickBot="1">
+      <c r="A12" s="25">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="6" t="s">
+      <c r="C12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J12" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="22" thickBot="1">
-      <c r="A12" s="25">
+    <row r="13" spans="1:16" ht="22" thickBot="1">
+      <c r="A13" s="25">
         <v>10</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F13" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I13" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="J13" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="42">
-      <c r="C14" s="1" t="s">
+    <row r="15" spans="1:16" ht="42">
+      <c r="C15" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="21">
-      <c r="C15" s="1" t="s">
+    <row r="16" spans="1:16" ht="21">
+      <c r="C16" s="1" t="s">
         <v>327</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="21">
-      <c r="C16" s="1" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="17" spans="3:9" ht="21">
       <c r="C17" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="18" spans="3:9" ht="21">
       <c r="C18" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" ht="21">
+      <c r="C19" s="1" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="20" spans="3:9">
-      <c r="C20" s="26" t="s">
+    <row r="21" spans="3:9">
+      <c r="C21" s="26" t="s">
         <v>427</v>
       </c>
-      <c r="F20" s="26" t="s">
+      <c r="F21" s="26" t="s">
         <v>426</v>
       </c>
-      <c r="I20" s="26" t="s">
+      <c r="I21" s="26" t="s">
         <v>426</v>
       </c>
     </row>
@@ -3154,15 +3786,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB342C49-866F-554E-AFEF-D52EAA16E95A}">
-  <dimension ref="A1:H91"/>
+  <dimension ref="A1:N92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B67" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B91" sqref="B91"/>
+      <selection pane="bottomRight" activeCell="I2" sqref="I2:N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -3173,98 +3805,144 @@
     <col min="4" max="4" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="40.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.28515625" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1"/>
+    <col min="12" max="12" width="35.28515625" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="22" thickBot="1">
-      <c r="B1" s="21" t="s">
+    <row r="1" spans="1:14" ht="22" thickBot="1">
+      <c r="B1" s="41" t="s">
+        <v>431</v>
+      </c>
+      <c r="C1" s="42"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="45" t="s">
+        <v>443</v>
+      </c>
+      <c r="J1" s="46"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="47"/>
+    </row>
+    <row r="2" spans="1:14" ht="22" thickBot="1">
+      <c r="B2" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="21" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="22"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="18" t="s">
+      <c r="F2" s="22"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="18" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="21" thickBot="1">
-      <c r="B2" s="15" t="s">
+      <c r="I2" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="19"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="M2" s="19"/>
+      <c r="N2" s="20"/>
+    </row>
+    <row r="3" spans="1:14" ht="22" thickBot="1">
+      <c r="B3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H3" s="24" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="25">
+      <c r="I3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="K3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="25">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="25">
+      <c r="I4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="25">
+        <v>2</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="25">
-        <v>3</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -3273,7 +3951,7 @@
         <v>47</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F5" t="s">
         <v>7</v>
@@ -3281,68 +3959,113 @@
       <c r="G5" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="3">
+        <v>638</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="N5" s="3">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="25">
+        <v>3</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="J6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="3">
+        <v>693</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="N6" s="3">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="25">
         <v>4</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B7" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E7" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="3" t="s">
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="25">
+      <c r="I7" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="J7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="N7" s="3">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="25">
         <v>5</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E8" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="25">
-        <v>6</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="F8" t="s">
         <v>7</v>
@@ -3350,436 +4073,716 @@
       <c r="G8" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="J8" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="N8" s="3">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="25">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="J9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" s="3">
+        <v>528</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="N9" s="3">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="25">
+        <v>7</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="3" t="s">
+      <c r="F10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="25">
+      <c r="I10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="J10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="N10" s="3">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="25">
         <v>8</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B11" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E11" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="3" t="s">
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="25">
+      <c r="I11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="N11" s="3">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="25">
         <v>9</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B12" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E12" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="3" t="s">
+      <c r="F12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="25">
+      <c r="I12" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J12" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12" s="3">
+        <v>440</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="N12" s="3">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="25">
         <v>10</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B13" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E13" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="3" t="s">
+      <c r="F13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="25">
+      <c r="I13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K13" s="3">
+        <v>506</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="N13" s="3">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="25">
         <v>11</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B14" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E14" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="3" t="s">
+      <c r="F14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="25">
+      <c r="I14" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="J14" t="s">
+        <v>7</v>
+      </c>
+      <c r="K14" s="3">
+        <v>627</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="N14" s="3">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="25">
         <v>12</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B15" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E15" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="F15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="25">
+      <c r="I15" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="J15" t="s">
+        <v>7</v>
+      </c>
+      <c r="K15" s="3">
+        <v>693</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="N15" s="3">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="25">
         <v>13</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B16" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E16" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="3" t="s">
+      <c r="F16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="25">
+      <c r="I16" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="J16" t="s">
+        <v>7</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="N16" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="25">
         <v>14</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B17" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" t="s">
         <v>66</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E17" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F16" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="3" t="s">
+      <c r="F17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="25">
+      <c r="I17" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="J17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="N17" s="3">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="25">
         <v>15</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B18" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
         <v>68</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E18" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17" s="3" t="s">
+      <c r="F18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="25">
+      <c r="I18" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="J18" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18" s="3">
+        <v>594</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="N18" s="3">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="25">
         <v>16</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B19" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E19" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F18" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="3" t="s">
+      <c r="F19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="25">
+      <c r="I19" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="J19" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" s="3">
+        <v>429</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="N19" s="3">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="25">
         <v>17</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B20" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" t="s">
         <v>72</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E20" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F19" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="3" t="s">
+      <c r="F20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="25">
+      <c r="I20" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="J20" t="s">
+        <v>7</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="N20" s="3">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="25">
         <v>18</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B21" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="C20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" t="s">
         <v>57</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E21" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="F20" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" s="3" t="s">
+      <c r="F21" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="25">
+      <c r="I21" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="J21" t="s">
+        <v>7</v>
+      </c>
+      <c r="K21" s="3">
+        <v>407</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="N21" s="3">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="25">
         <v>19</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B22" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" t="s">
         <v>74</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E22" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F21" t="s">
-        <v>7</v>
-      </c>
-      <c r="G21" s="3" t="s">
+      <c r="F22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="25">
+      <c r="I22" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="J22" t="s">
+        <v>7</v>
+      </c>
+      <c r="K22" s="3">
+        <v>858</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="N22" s="3">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="25">
         <v>20</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B23" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" t="s">
         <v>76</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E23" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="F22" t="s">
-        <v>7</v>
-      </c>
-      <c r="G22" s="3" t="s">
+      <c r="F23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="25">
+      <c r="I23" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="J23" t="s">
+        <v>7</v>
+      </c>
+      <c r="K23" s="3">
+        <v>594</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="N23" s="3">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="25">
         <v>21</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B24" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E24" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F23" t="s">
-        <v>7</v>
-      </c>
-      <c r="G23" s="3" t="s">
+      <c r="F24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="25">
+      <c r="I24" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="J24" t="s">
+        <v>7</v>
+      </c>
+      <c r="K24" s="3">
+        <v>858</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="N24" s="3">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="21" thickBot="1">
+      <c r="A25" s="25">
         <v>22</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B25" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" t="s">
         <v>79</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E25" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F24" t="s">
-        <v>7</v>
-      </c>
-      <c r="G24" s="3" t="s">
+      <c r="F25" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="25">
+      <c r="I25" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="J25" t="s">
+        <v>7</v>
+      </c>
+      <c r="K25" s="3">
+        <v>858</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="M25" s="9"/>
+      <c r="N25" s="6">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="25">
         <v>23</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B26" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C25" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" t="s">
         <v>76</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E26" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F25" t="s">
-        <v>7</v>
-      </c>
-      <c r="G25" s="3" t="s">
+      <c r="F26" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="25">
+      <c r="I26" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="J26" t="s">
+        <v>7</v>
+      </c>
+      <c r="K26" s="3">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="25">
         <v>24</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B27" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" t="s">
-        <v>82</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F26" t="s">
-        <v>7</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="25">
-        <v>25</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>83</v>
-      </c>
       <c r="C27" t="s">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="D27" t="s">
         <v>82</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>159</v>
+        <v>81</v>
       </c>
       <c r="F27" t="s">
         <v>7</v>
@@ -3787,59 +4790,86 @@
       <c r="G27" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="I27" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="J27" t="s">
+        <v>7</v>
+      </c>
+      <c r="K27" s="3">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="25">
+        <v>25</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F28" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="J28" t="s">
+        <v>7</v>
+      </c>
+      <c r="K28" s="3">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="25">
         <v>26</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B29" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>86</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D29" t="s">
         <v>61</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E29" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F28" t="s">
-        <v>7</v>
-      </c>
-      <c r="G28" s="3" t="s">
+      <c r="F29" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="25">
+      <c r="I29" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="J29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="25">
         <v>27</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B30" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="C29" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" t="s">
-        <v>68</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F29" t="s">
-        <v>7</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="25">
-        <v>28</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="C30" t="s">
         <v>7</v>
@@ -3848,7 +4878,7 @@
         <v>68</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>161</v>
+        <v>87</v>
       </c>
       <c r="F30" t="s">
         <v>7</v>
@@ -3856,128 +4886,182 @@
       <c r="G30" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="I30" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="J30" t="s">
+        <v>7</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" s="25">
+        <v>28</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" t="s">
+        <v>68</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="J31" t="s">
+        <v>7</v>
+      </c>
+      <c r="K31" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="25">
         <v>29</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B32" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C31" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" t="s">
         <v>90</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E32" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F31" t="s">
-        <v>7</v>
-      </c>
-      <c r="G31" s="3" t="s">
+      <c r="F32" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" s="3" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="25">
+      <c r="I32" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="J32" t="s">
+        <v>7</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="25">
         <v>30</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B33" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" t="s">
         <v>61</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E33" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F32" t="s">
-        <v>7</v>
-      </c>
-      <c r="G32" s="3" t="s">
+      <c r="F33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="25">
+      <c r="I33" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="J33" t="s">
+        <v>7</v>
+      </c>
+      <c r="K33" s="3">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="25">
         <v>31</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B34" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="C34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" t="s">
         <v>93</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E34" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F33" t="s">
-        <v>7</v>
-      </c>
-      <c r="G33" s="3" t="s">
+      <c r="F34" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="25">
+      <c r="I34" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="J34" t="s">
+        <v>7</v>
+      </c>
+      <c r="K34" s="3">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="25">
         <v>32</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B35" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="C35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" t="s">
         <v>50</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E35" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F34" t="s">
-        <v>7</v>
-      </c>
-      <c r="G34" s="3" t="s">
+      <c r="F35" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="25">
+      <c r="I35" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="J35" t="s">
+        <v>7</v>
+      </c>
+      <c r="K35" s="3">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="25">
         <v>33</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B36" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="C35" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" t="s">
-        <v>76</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F35" t="s">
-        <v>7</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="25">
-        <v>34</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="C36" t="s">
         <v>7</v>
@@ -3986,7 +5070,7 @@
         <v>76</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F36" t="s">
         <v>7</v>
@@ -3994,91 +5078,118 @@
       <c r="G36" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="I36" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="J36" t="s">
+        <v>7</v>
+      </c>
+      <c r="K36" s="3">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="25">
+        <v>34</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" t="s">
+        <v>76</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F37" t="s">
+        <v>7</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J37" t="s">
+        <v>7</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="21" thickBot="1">
+      <c r="A38" s="25">
         <v>35</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B38" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C37" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="C38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" t="s">
         <v>98</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E38" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="F37" t="s">
-        <v>7</v>
-      </c>
-      <c r="G37" s="3" t="s">
+      <c r="F38" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="25">
+      <c r="I38" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J38" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="25">
         <v>36</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B39" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C38" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="C39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" t="s">
         <v>100</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E39" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="F38" t="s">
-        <v>7</v>
-      </c>
-      <c r="G38" s="3" t="s">
+      <c r="F39" t="s">
+        <v>7</v>
+      </c>
+      <c r="G39" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="25">
+    <row r="40" spans="1:11">
+      <c r="A40" s="25">
         <v>37</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B40" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C39" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="C40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" t="s">
         <v>98</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E40" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="F39" t="s">
-        <v>7</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="25">
-        <v>38</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C40" t="s">
-        <v>103</v>
-      </c>
-      <c r="D40" t="s">
-        <v>104</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="F40" t="s">
         <v>7</v>
@@ -4087,44 +5198,44 @@
         <v>130</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:11">
       <c r="A41" s="25">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>102</v>
       </c>
       <c r="C41" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D41" t="s">
         <v>104</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F41" t="s">
+        <v>7</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="25">
+        <v>39</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C42" t="s">
+        <v>105</v>
+      </c>
+      <c r="D42" t="s">
+        <v>104</v>
+      </c>
+      <c r="E42" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="F41" t="s">
-        <v>7</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="25">
-        <v>40</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C42" t="s">
-        <v>103</v>
-      </c>
-      <c r="D42" t="s">
-        <v>100</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="F42" t="s">
         <v>7</v>
@@ -4133,127 +5244,127 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:11">
       <c r="A43" s="25">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C43" t="s">
         <v>103</v>
       </c>
       <c r="D43" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F43" t="s">
         <v>7</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="25">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>107</v>
       </c>
       <c r="C44" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D44" t="s">
         <v>108</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F44" t="s">
+        <v>7</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="25">
+        <v>42</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C45" t="s">
+        <v>105</v>
+      </c>
+      <c r="D45" t="s">
+        <v>108</v>
+      </c>
+      <c r="E45" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F44" t="s">
-        <v>7</v>
-      </c>
-      <c r="G44" s="3" t="s">
+      <c r="F45" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="25">
+    <row r="46" spans="1:11">
+      <c r="A46" s="25">
         <v>43</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B46" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C46" t="s">
         <v>110</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D46" t="s">
         <v>100</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E46" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F45" t="s">
-        <v>7</v>
-      </c>
-      <c r="G45" s="3" t="s">
+      <c r="F46" t="s">
+        <v>7</v>
+      </c>
+      <c r="G46" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="25">
+    <row r="47" spans="1:11">
+      <c r="A47" s="25">
         <v>44</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B47" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C46" t="s">
-        <v>7</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="C47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" t="s">
         <v>112</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E47" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="F46" t="s">
-        <v>7</v>
-      </c>
-      <c r="G46" s="3" t="s">
+      <c r="F47" t="s">
+        <v>7</v>
+      </c>
+      <c r="G47" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="25">
+    <row r="48" spans="1:11">
+      <c r="A48" s="25">
         <v>45</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B48" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="C47" t="s">
-        <v>7</v>
-      </c>
-      <c r="D47" t="s">
-        <v>114</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="F47" t="s">
-        <v>7</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="25">
-        <v>46</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="C48" t="s">
         <v>7</v>
@@ -4262,53 +5373,53 @@
         <v>114</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F48" t="s">
         <v>7</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="25">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C49" t="s">
         <v>7</v>
       </c>
       <c r="D49" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F49" t="s">
         <v>7</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="25">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C50" t="s">
         <v>7</v>
       </c>
       <c r="D50" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F50" t="s">
         <v>7</v>
@@ -4319,65 +5430,65 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="25">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C51" t="s">
         <v>7</v>
       </c>
       <c r="D51" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F51" t="s">
         <v>7</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="25">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C52" t="s">
         <v>7</v>
       </c>
       <c r="D52" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F52" t="s">
         <v>7</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="25">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C53" t="s">
         <v>7</v>
       </c>
       <c r="D53" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F53" t="s">
         <v>7</v>
@@ -4388,10 +5499,10 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="25">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C54" t="s">
         <v>7</v>
@@ -4400,76 +5511,76 @@
         <v>125</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F54" t="s">
         <v>7</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="25">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C55" t="s">
         <v>7</v>
       </c>
       <c r="D55" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>111</v>
+        <v>181</v>
       </c>
       <c r="F55" t="s">
         <v>7</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="25">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C56" t="s">
         <v>7</v>
       </c>
       <c r="D56" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F56" t="s">
         <v>7</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="25">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C57" t="s">
         <v>7</v>
       </c>
       <c r="D57" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F57" t="s">
         <v>7</v>
@@ -4480,10 +5591,10 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="25">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C58" t="s">
         <v>7</v>
@@ -4492,99 +5603,99 @@
         <v>132</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>182</v>
+        <v>115</v>
       </c>
       <c r="F58" t="s">
         <v>7</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="25">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C59" t="s">
         <v>7</v>
       </c>
       <c r="D59" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>118</v>
+        <v>182</v>
       </c>
       <c r="F59" t="s">
         <v>7</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="25">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C60" t="s">
         <v>7</v>
       </c>
       <c r="D60" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F60" t="s">
         <v>7</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>183</v>
+        <v>119</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="25">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C61" t="s">
         <v>7</v>
       </c>
       <c r="D61" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>184</v>
+        <v>120</v>
       </c>
       <c r="F61" t="s">
         <v>7</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>125</v>
+        <v>183</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="25">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C62" t="s">
         <v>7</v>
       </c>
       <c r="D62" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F62" t="s">
         <v>7</v>
@@ -4595,19 +5706,19 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="25">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C63" t="s">
         <v>7</v>
       </c>
       <c r="D63" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F63" t="s">
         <v>7</v>
@@ -4618,79 +5729,79 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="25">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C64" t="s">
         <v>7</v>
       </c>
       <c r="D64" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>127</v>
+        <v>186</v>
       </c>
       <c r="F64" t="s">
         <v>7</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="25">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C65" t="s">
         <v>7</v>
       </c>
       <c r="D65" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F65" t="s">
         <v>7</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="25">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C66" t="s">
         <v>7</v>
       </c>
       <c r="D66" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F66" t="s">
         <v>7</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="25">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C67" t="s">
         <v>7</v>
@@ -4699,7 +5810,7 @@
         <v>149</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F67" t="s">
         <v>7</v>
@@ -4710,10 +5821,10 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="25">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C68" t="s">
         <v>7</v>
@@ -4722,21 +5833,21 @@
         <v>149</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F68" t="s">
         <v>7</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="25">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C69" t="s">
         <v>7</v>
@@ -4745,114 +5856,123 @@
         <v>149</v>
       </c>
       <c r="E69" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F69" t="s">
+        <v>7</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="25">
+        <v>67</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C70" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" t="s">
+        <v>149</v>
+      </c>
+      <c r="E70" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F69" t="s">
-        <v>7</v>
-      </c>
-      <c r="G69" s="3" t="s">
+      <c r="F70" t="s">
+        <v>7</v>
+      </c>
+      <c r="G70" s="3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="21" thickBot="1">
-      <c r="A70" s="25">
+    <row r="71" spans="1:7" ht="21" thickBot="1">
+      <c r="A71" s="25">
         <v>68</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="B71" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="C70" s="9" t="s">
+      <c r="C71" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="D70" s="9" t="s">
+      <c r="D71" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="E70" s="7" t="s">
+      <c r="E71" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="F70" t="s">
-        <v>7</v>
-      </c>
-      <c r="G70" s="3" t="s">
+      <c r="F71" t="s">
+        <v>7</v>
+      </c>
+      <c r="G71" s="3" t="s">
         <v>139</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="A71" s="25">
-        <v>69</v>
-      </c>
-      <c r="E71" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="F71" t="s">
-        <v>7</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="25">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F72" t="s">
         <v>7</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>143</v>
+        <v>187</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="25">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F73" t="s">
         <v>7</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>188</v>
+        <v>143</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="25">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F74" t="s">
         <v>7</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>147</v>
+        <v>188</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="25">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F75" t="s">
         <v>7</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="25">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F76" t="s">
         <v>7</v>
@@ -4863,10 +5983,10 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="25">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F77" t="s">
         <v>7</v>
@@ -4875,109 +5995,123 @@
         <v>149</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="21" thickBot="1">
+    <row r="78" spans="1:7">
       <c r="A78" s="25">
+        <v>75</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F78" t="s">
+        <v>7</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="21" thickBot="1">
+      <c r="A79" s="25">
         <v>76</v>
       </c>
-      <c r="E78" s="8" t="s">
+      <c r="E79" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="F78" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G78" s="6" t="s">
+      <c r="F79" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G79" s="6" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
-      <c r="A79" s="25"/>
-    </row>
-    <row r="81" spans="2:7">
-      <c r="B81" t="s">
-        <v>338</v>
-      </c>
-      <c r="E81" t="s">
-        <v>332</v>
-      </c>
-      <c r="F81" s="26"/>
-      <c r="G81" s="26"/>
+    <row r="80" spans="1:7">
+      <c r="A80" s="25"/>
     </row>
     <row r="82" spans="2:7">
       <c r="B82" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E82" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F82" s="26"/>
       <c r="G82" s="26"/>
     </row>
     <row r="83" spans="2:7">
       <c r="B83" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E83" t="s">
-        <v>334</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="F83" s="26"/>
+      <c r="G83" s="26"/>
     </row>
     <row r="84" spans="2:7">
       <c r="B84" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="E84" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
     </row>
     <row r="85" spans="2:7">
       <c r="B85" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E85" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
     </row>
     <row r="86" spans="2:7">
       <c r="B86" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E86" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
     </row>
     <row r="87" spans="2:7">
       <c r="B87" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E87" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
     </row>
     <row r="88" spans="2:7">
       <c r="B88" t="s">
+        <v>348</v>
+      </c>
+      <c r="E88" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7">
+      <c r="B89" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="90" spans="2:7">
-      <c r="B90" t="s">
+    <row r="91" spans="2:7">
+      <c r="B91" t="s">
         <v>337</v>
       </c>
-      <c r="C90">
+      <c r="C91">
         <f>1-(13/77)</f>
         <v>0.83116883116883122</v>
       </c>
-      <c r="E90" t="s">
+      <c r="E91" t="s">
         <v>337</v>
       </c>
-      <c r="F90">
+      <c r="F91">
         <f>1-(8/77)</f>
         <v>0.89610389610389607</v>
       </c>
     </row>
-    <row r="91" spans="2:7">
-      <c r="B91" t="s">
+    <row r="92" spans="2:7">
+      <c r="B92" t="s">
         <v>424</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E92" t="s">
         <v>425</v>
       </c>
     </row>
@@ -4987,15 +6121,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24FE6F60-9C44-E343-BC41-206CF08979CF}">
-  <dimension ref="A1:J52"/>
+  <dimension ref="A1:P53"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C52" sqref="C52:I52"/>
+      <selection pane="bottomRight" activeCell="K2" sqref="K2:P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -5007,156 +6141,213 @@
     <col min="6" max="6" width="30.28515625" style="1" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
     <col min="9" max="9" width="30.28515625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="31.5703125" customWidth="1"/>
+    <col min="13" max="13" width="12" customWidth="1"/>
+    <col min="14" max="14" width="17.85546875" customWidth="1"/>
+    <col min="15" max="15" width="31.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="22" thickBot="1">
-      <c r="B1" s="18" t="s">
+    <row r="1" spans="1:16" ht="22" thickBot="1">
+      <c r="B1" s="41" t="s">
+        <v>431</v>
+      </c>
+      <c r="C1" s="42"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="51" t="s">
+        <v>443</v>
+      </c>
+      <c r="L1" s="52"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="54"/>
+    </row>
+    <row r="2" spans="1:16" ht="22" thickBot="1">
+      <c r="B2" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="18" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="18" t="s">
+      <c r="F2" s="19"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="20"/>
-    </row>
-    <row r="2" spans="1:10" ht="22" thickBot="1">
-      <c r="B2" s="15" t="s">
+      <c r="I2" s="19"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="19"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="O2" s="19"/>
+      <c r="P2" s="20"/>
+    </row>
+    <row r="3" spans="1:16" ht="22" thickBot="1">
+      <c r="B3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J3" s="16" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="42">
-      <c r="A3">
+      <c r="K3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="M3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="P3" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="42">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D4" s="3">
         <v>900</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="G3">
+      <c r="G4">
         <v>900</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J4" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="42">
-      <c r="A4">
+      <c r="K4" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L4" t="s">
+        <v>497</v>
+      </c>
+      <c r="M4" s="3">
+        <v>900</v>
+      </c>
+      <c r="N4" s="48" t="s">
+        <v>131</v>
+      </c>
+      <c r="O4" s="49" t="s">
+        <v>190</v>
+      </c>
+      <c r="P4" s="50">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="42">
+      <c r="A5">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D5" s="3">
         <v>1300</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E5" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="G4">
+      <c r="G5">
         <v>1300</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H5" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J5" s="3">
         <v>1300</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="21">
-      <c r="A5">
+      <c r="K5" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="L5" t="s">
+        <v>267</v>
+      </c>
+      <c r="M5" s="3">
+        <v>1300</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="O5" t="s">
+        <v>512</v>
+      </c>
+      <c r="P5" s="3">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="21">
+      <c r="A6">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1100</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="G5">
-        <v>1100</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="J5" s="3">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="21">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>194</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
@@ -5165,62 +6356,98 @@
         <v>1100</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G6">
         <v>1100</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="J6" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="21">
+      <c r="K6" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="L6" t="s">
+        <v>242</v>
+      </c>
+      <c r="M6" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="O6" t="s">
+        <v>242</v>
+      </c>
+      <c r="P6" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="21">
       <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G7">
+        <v>1100</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="L7" t="s">
+        <v>244</v>
+      </c>
+      <c r="M7" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="O7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P7" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="21">
+      <c r="A8">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="3">
-        <v>900</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="G7">
-        <v>400</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="J7" s="3">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="21">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>353</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>7</v>
@@ -5229,126 +6456,198 @@
         <v>900</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>247</v>
+        <v>200</v>
       </c>
       <c r="G8">
         <v>400</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>196</v>
+        <v>269</v>
       </c>
       <c r="J8" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="63">
+      <c r="K8" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="L8" t="s">
+        <v>499</v>
+      </c>
+      <c r="M8" s="3">
+        <v>900</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="O8" t="s">
+        <v>499</v>
+      </c>
+      <c r="P8" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="21">
       <c r="A9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>197</v>
+        <v>353</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="3">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G9">
         <v>400</v>
       </c>
       <c r="H9" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="J9" s="3">
+        <v>900</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="L9" t="s">
+        <v>501</v>
+      </c>
+      <c r="M9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="O9" t="s">
+        <v>514</v>
+      </c>
+      <c r="P9" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="63">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="G10">
+        <v>400</v>
+      </c>
+      <c r="H10" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J10" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="21">
-      <c r="A10">
+      <c r="K10" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="L10" t="s">
+        <v>503</v>
+      </c>
+      <c r="M10" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="O10" t="s">
+        <v>515</v>
+      </c>
+      <c r="P10" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="21">
+      <c r="A11">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D11" s="3">
         <v>900</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E11" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="G10">
-        <v>350</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="J10" s="3">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="21">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="3">
-        <v>400</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>253</v>
       </c>
       <c r="G11">
         <v>350</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>245</v>
+        <v>111</v>
       </c>
       <c r="I11" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="J11" s="3">
+        <v>900</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="L11" t="s">
+        <v>505</v>
+      </c>
+      <c r="M11" s="3">
+        <v>800</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="O11" t="s">
+        <v>517</v>
+      </c>
+      <c r="P11" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="21">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="J11" s="3">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="21">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>7</v>
@@ -5357,155 +6656,204 @@
         <v>400</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G12">
+        <v>350</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>201</v>
       </c>
       <c r="J12" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="21">
+      <c r="K12" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="L12" t="s">
+        <v>507</v>
+      </c>
+      <c r="M12" s="3">
+        <v>900</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="P12" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="22" thickBot="1">
       <c r="A13">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>203</v>
+        <v>7</v>
       </c>
       <c r="D13" s="3">
         <v>400</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>207</v>
+        <v>255</v>
       </c>
       <c r="G13">
         <v>200</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>273</v>
+        <v>201</v>
       </c>
       <c r="J13" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="21">
+      <c r="K13" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="L13" t="s">
+        <v>509</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="O13" s="9"/>
+      <c r="P13" s="6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="21">
       <c r="A14">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>7</v>
+        <v>203</v>
       </c>
       <c r="D14" s="3">
         <v>400</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G14">
         <v>200</v>
       </c>
       <c r="H14" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J14" s="3">
+        <v>400</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="L14" t="s">
+        <v>7</v>
+      </c>
+      <c r="M14" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="22" thickBot="1">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="3">
+        <v>400</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G15">
+        <v>200</v>
+      </c>
+      <c r="H15" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="J14" s="3">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="21">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="3">
-        <v>350</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="G15">
-        <v>300</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="J15" s="3">
         <v>350</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="21">
+      <c r="K15" s="8" t="s">
+        <v>511</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="21">
       <c r="A16">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D16" s="3">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>210</v>
+        <v>258</v>
       </c>
       <c r="G16">
-        <v>450</v>
+        <v>300</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J16" s="3">
-        <v>200</v>
+        <v>350</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="21">
       <c r="A17">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>7</v>
@@ -5514,19 +6862,19 @@
         <v>200</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>261</v>
+        <v>210</v>
       </c>
       <c r="G17">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J17" s="3">
         <v>200</v>
@@ -5534,10 +6882,10 @@
     </row>
     <row r="18" spans="1:10" ht="21">
       <c r="A18">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>7</v>
@@ -5546,218 +6894,232 @@
         <v>200</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>213</v>
+        <v>261</v>
       </c>
       <c r="G18">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J18" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="42">
+    <row r="19" spans="1:10" ht="21">
       <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="3">
+        <v>200</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G19">
+        <v>350</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="J19" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="42">
+      <c r="A20">
         <v>17</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="3">
+      <c r="C20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="3">
         <v>300</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E20" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="G19">
+      <c r="G20">
         <v>550</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H20" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I20" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J20" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="43" thickBot="1">
-      <c r="A20">
+    <row r="21" spans="1:10" ht="43" thickBot="1">
+      <c r="A21">
         <v>18</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="3">
+      <c r="C21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="3">
         <v>450</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E21" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F21" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G21" s="9">
         <v>350</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="H21" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J21" s="3">
         <v>450</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="21">
-      <c r="A21">
-        <v>19</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D21" s="3">
-        <v>650</v>
-      </c>
-      <c r="E21" s="1"/>
-      <c r="F21"/>
-      <c r="H21" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="J21" s="3">
-        <v>650</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="21">
       <c r="A22">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>7</v>
+        <v>212</v>
       </c>
       <c r="D22" s="3">
-        <v>400</v>
+        <v>650</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22"/>
       <c r="H22" s="7" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="I22" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="J22" s="3">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="21">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="J22" s="3">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="42">
-      <c r="A23">
-        <v>21</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>214</v>
-      </c>
       <c r="C23" s="1" t="s">
-        <v>215</v>
+        <v>7</v>
       </c>
       <c r="D23" s="3">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23"/>
       <c r="H23" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>264</v>
+        <v>213</v>
       </c>
       <c r="J23" s="3">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="42">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D24" s="3">
         <v>550</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="43" thickBot="1">
-      <c r="A24">
-        <v>22</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D24" s="3">
-        <v>350</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24"/>
-      <c r="H24" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="J24" s="6">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="21">
+      <c r="H24" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="J24" s="3">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="43" thickBot="1">
       <c r="A25">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>7</v>
+        <v>217</v>
       </c>
       <c r="D25" s="3">
         <v>350</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25"/>
-      <c r="H25" s="1"/>
-      <c r="I25"/>
+      <c r="H25" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="J25" s="6">
+        <v>350</v>
+      </c>
     </row>
     <row r="26" spans="1:10" ht="21">
       <c r="A26">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D26" s="3">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26"/>
@@ -5766,10 +7128,10 @@
     </row>
     <row r="27" spans="1:10" ht="21">
       <c r="A27">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>7</v>
@@ -5784,10 +7146,10 @@
     </row>
     <row r="28" spans="1:10" ht="21">
       <c r="A28">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>7</v>
@@ -5802,10 +7164,10 @@
     </row>
     <row r="29" spans="1:10" ht="21">
       <c r="A29">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>7</v>
@@ -5818,12 +7180,12 @@
       <c r="H29" s="1"/>
       <c r="I29"/>
     </row>
-    <row r="30" spans="1:10" ht="42">
+    <row r="30" spans="1:10" ht="21">
       <c r="A30">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>7</v>
@@ -5836,12 +7198,12 @@
       <c r="H30" s="1"/>
       <c r="I30"/>
     </row>
-    <row r="31" spans="1:10" ht="21">
+    <row r="31" spans="1:10" ht="42">
       <c r="A31">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>7</v>
@@ -5849,41 +7211,45 @@
       <c r="D31" s="3">
         <v>400</v>
       </c>
+      <c r="E31" s="1"/>
+      <c r="F31"/>
+      <c r="H31" s="1"/>
+      <c r="I31"/>
     </row>
     <row r="32" spans="1:10" ht="21">
       <c r="A32">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D32" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="21">
       <c r="A33">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D33" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="21">
       <c r="A34">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>7</v>
@@ -5894,27 +7260,27 @@
     </row>
     <row r="35" spans="1:9" ht="21">
       <c r="A35">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>229</v>
+        <v>7</v>
       </c>
       <c r="D35" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="21">
       <c r="A36">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>7</v>
+        <v>229</v>
       </c>
       <c r="D36" s="3">
         <v>400</v>
@@ -5922,10 +7288,10 @@
     </row>
     <row r="37" spans="1:9" ht="21">
       <c r="A37">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>7</v>
@@ -5936,38 +7302,38 @@
     </row>
     <row r="38" spans="1:9" ht="21">
       <c r="A38">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D38" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="21">
       <c r="A39">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D39" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="21">
       <c r="A40">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>7</v>
@@ -5978,88 +7344,102 @@
     </row>
     <row r="41" spans="1:9" ht="21">
       <c r="A41">
+        <v>38</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="21">
+      <c r="A42">
         <v>39</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B42" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D41" s="3">
+      <c r="C42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="3">
         <v>650</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="22" thickBot="1">
-      <c r="A42">
+    <row r="43" spans="1:9" ht="22" thickBot="1">
+      <c r="A43">
         <v>40</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B43" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C43" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D43" s="6">
         <v>600</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
-      <c r="C45" t="s">
+    <row r="46" spans="1:9">
+      <c r="C46" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="63">
-      <c r="C46" t="s">
+    <row r="47" spans="1:9" ht="63">
+      <c r="C47" t="s">
         <v>355</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="F47" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="I46" s="1" t="s">
+      <c r="I47" s="1" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="21">
-      <c r="C47" s="1" t="s">
+    <row r="48" spans="1:9" ht="21">
+      <c r="C48" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="F48" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="I47" t="s">
+      <c r="I48" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="105">
-      <c r="C48" t="s">
+    <row r="49" spans="3:9" ht="105">
+      <c r="C49" t="s">
         <v>357</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="F49" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="I48" s="1" t="s">
+      <c r="I49" s="1" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="49" spans="3:9">
-      <c r="C49" t="s">
+    <row r="50" spans="3:9">
+      <c r="C50" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="50" spans="3:9" ht="21">
-      <c r="F50" s="1" t="s">
+    <row r="51" spans="3:9" ht="21">
+      <c r="F51" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="52" spans="3:9" ht="21">
-      <c r="C52" s="1" t="s">
+    <row r="53" spans="3:9" ht="21">
+      <c r="C53" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="F53" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="I52" s="1" t="s">
+      <c r="I53" s="1" t="s">
         <v>423</v>
       </c>
     </row>
@@ -6069,20 +7449,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65659938-964F-FA40-9935-A2954282E2C6}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B31" sqref="B31:H31"/>
+      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="39.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" style="1"/>
@@ -6092,501 +7472,728 @@
     <col min="8" max="8" width="20.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="39.28515625" style="1" customWidth="1"/>
     <col min="10" max="10" width="10.7109375" style="1"/>
+    <col min="11" max="11" width="17.28515625" customWidth="1"/>
+    <col min="12" max="12" width="34.7109375" customWidth="1"/>
+    <col min="14" max="14" width="18.5703125" customWidth="1"/>
+    <col min="15" max="15" width="34.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="22" thickBot="1">
-      <c r="B1" s="18" t="s">
+    <row r="1" spans="1:16" ht="22" thickBot="1">
+      <c r="B1" s="41" t="s">
+        <v>431</v>
+      </c>
+      <c r="C1" s="42"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="51" t="s">
+        <v>443</v>
+      </c>
+      <c r="L1" s="52"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="54"/>
+    </row>
+    <row r="2" spans="1:16" ht="22" thickBot="1">
+      <c r="B2" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="18" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="18" t="s">
+      <c r="F2" s="19"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="23"/>
-    </row>
-    <row r="2" spans="1:10" ht="22" thickBot="1">
-      <c r="B2" s="12" t="s">
+      <c r="I2" s="19"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="19"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="O2" s="19"/>
+      <c r="P2" s="20"/>
+    </row>
+    <row r="3" spans="1:16" ht="22" thickBot="1">
+      <c r="B3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J3" s="14" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="126">
-      <c r="A3">
+      <c r="K3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="M3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="P3" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="126">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D4" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G4" s="10" t="s">
         <v>384</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J4" s="1" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="126">
-      <c r="A4">
+      <c r="K4" s="56" t="s">
+        <v>520</v>
+      </c>
+      <c r="L4" s="55" t="s">
+        <v>521</v>
+      </c>
+      <c r="M4" s="50">
+        <v>1851</v>
+      </c>
+      <c r="N4" s="56" t="s">
+        <v>535</v>
+      </c>
+      <c r="O4" s="55" t="s">
+        <v>536</v>
+      </c>
+      <c r="P4" s="50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="126">
+      <c r="A5">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D5" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G5" s="10" t="s">
         <v>387</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J5" s="1" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="63">
-      <c r="A5">
+      <c r="K5" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="M5" s="3">
+        <v>1901</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="63">
+      <c r="A6">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D6" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G6" s="10">
         <v>1851</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J6" s="1" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="126">
-      <c r="A6">
+      <c r="K6" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="M6" s="3">
+        <v>1610</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="126">
+      <c r="A7">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D7" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G7" s="10">
         <v>401</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J7" s="1">
         <v>401</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="126">
-      <c r="A7">
+      <c r="K7" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="M7" s="3">
+        <v>1851</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="P7" s="3">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="126">
+      <c r="A8">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D8" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G8" s="10">
         <v>651</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J8" s="1">
         <v>651</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="63">
-      <c r="A8">
+      <c r="K8" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="P8" s="3">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="63">
+      <c r="A9">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="D9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G9" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J9" s="1" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="84">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="K9" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="P9" s="3">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="84">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="D10" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G10" s="10">
         <v>1601</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J10" s="1">
         <v>1601</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="46" customHeight="1">
-      <c r="A10">
+      <c r="K10" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="M10" s="3">
+        <v>651</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="46" customHeight="1">
+      <c r="A11">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D11" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G11" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J11" s="1" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="64" thickBot="1">
-      <c r="A11">
+      <c r="K11" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="64" thickBot="1">
+      <c r="A12">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B12" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C12" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D12" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F12" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G12" s="11">
         <v>1501</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H12" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I12" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J12" s="5">
         <v>1501</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="E12" s="28"/>
-    </row>
-    <row r="13" spans="1:10" ht="21">
-      <c r="E13" s="1" t="s">
+      <c r="K12" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="43" thickBot="1">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="E13" s="28"/>
+      <c r="K13" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="M13" s="6">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="21">
+      <c r="E14" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="J13"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="B14" t="s">
+      <c r="J14"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="B15" t="s">
         <v>377</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E15" t="s">
         <v>403</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H15" t="s">
         <v>376</v>
       </c>
-      <c r="J14"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="B15" t="s">
+      <c r="J15"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="B16" t="s">
         <v>380</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E16" t="s">
         <v>404</v>
-      </c>
-      <c r="F15"/>
-      <c r="H15" t="s">
-        <v>379</v>
-      </c>
-      <c r="J15"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="B16" t="s">
-        <v>381</v>
-      </c>
-      <c r="E16" t="s">
-        <v>406</v>
       </c>
       <c r="F16"/>
       <c r="H16" t="s">
-        <v>429</v>
+        <v>379</v>
       </c>
       <c r="J16"/>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="E17" t="s">
-        <v>404</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="F17"/>
       <c r="H17" t="s">
-        <v>400</v>
+        <v>429</v>
       </c>
       <c r="J17"/>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E18" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="H18" t="s">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="J18"/>
     </row>
     <row r="19" spans="2:10">
       <c r="B19" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E19" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="H19" t="s">
-        <v>381</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="J19"/>
     </row>
     <row r="20" spans="2:10">
       <c r="B20" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E20" t="s">
-        <v>411</v>
-      </c>
-      <c r="H20" s="29" t="s">
-        <v>395</v>
+        <v>409</v>
+      </c>
+      <c r="H20" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="21" spans="2:10">
       <c r="B21" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E21" t="s">
-        <v>380</v>
-      </c>
-      <c r="H21" s="29" t="s">
-        <v>416</v>
+        <v>411</v>
+      </c>
+      <c r="H21" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="22" spans="2:10">
       <c r="B22" t="s">
+        <v>400</v>
+      </c>
+      <c r="E22" t="s">
+        <v>380</v>
+      </c>
+      <c r="H22" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" t="s">
         <v>429</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E23" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="23" spans="2:10">
-      <c r="B23"/>
-      <c r="E23" t="s">
+    <row r="24" spans="2:10">
+      <c r="B24"/>
+      <c r="E24" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="24" spans="2:10">
-      <c r="B24" t="s">
+    <row r="25" spans="2:10">
+      <c r="B25" t="s">
         <v>401</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E25" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="25" spans="2:10">
-      <c r="B25"/>
-    </row>
     <row r="26" spans="2:10">
-      <c r="B26" t="s">
+      <c r="B26"/>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" t="s">
         <v>402</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E27" t="s">
         <v>401</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H27" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="28" spans="2:10">
-      <c r="E28" t="s">
+    <row r="29" spans="2:10">
+      <c r="E29" t="s">
         <v>402</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H29" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="31" spans="2:10" ht="21">
-      <c r="B31" s="1" t="s">
+    <row r="32" spans="2:10" ht="21">
+      <c r="B32" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="H32" s="1" t="s">
         <v>430</v>
       </c>
     </row>
@@ -6596,12 +8203,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0EF258F-7E2D-2B44-BF98-276CC585C103}">
   <dimension ref="B4:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -6615,34 +8222,34 @@
   <sheetData>
     <row r="4" spans="2:9" ht="21" thickBot="1"/>
     <row r="5" spans="2:9" ht="21" thickBot="1">
-      <c r="B5" s="36"/>
-      <c r="C5" s="37" t="s">
+      <c r="B5" s="35"/>
+      <c r="C5" s="36" t="s">
         <v>316</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="37" t="s">
         <v>434</v>
       </c>
-      <c r="E5" s="38" t="s">
+      <c r="E5" s="37" t="s">
         <v>349</v>
       </c>
-      <c r="F5" s="39" t="s">
+      <c r="F5" s="38" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="22" thickBot="1">
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="33" t="s">
         <v>427</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="31" t="s">
         <v>424</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="32" t="s">
         <v>419</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="32" t="s">
         <v>428</v>
       </c>
       <c r="I6" t="s">
@@ -6650,19 +8257,19 @@
       </c>
     </row>
     <row r="7" spans="2:9" ht="22" thickBot="1">
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="34" t="s">
         <v>426</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="29" t="s">
         <v>425</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="30" t="s">
         <v>420</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="F7" s="30" t="s">
         <v>424</v>
       </c>
       <c r="I7" t="s">
@@ -6670,19 +8277,19 @@
       </c>
     </row>
     <row r="8" spans="2:9" ht="22" thickBot="1">
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="40" t="s">
         <v>436</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="34" t="s">
         <v>426</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="29" t="s">
         <v>437</v>
       </c>
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="30" t="s">
         <v>423</v>
       </c>
-      <c r="F8" s="31" t="s">
+      <c r="F8" s="30" t="s">
         <v>430</v>
       </c>
     </row>

--- a/menu_extraction/replys.xlsx
+++ b/menu_extraction/replys.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/YShimada-MBP16/Documents/Code_Github/DL_for_ImageData_and_Finetuning/menu_extraction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9061C7AC-B90E-734F-93C6-13864726AC50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A5FA83-6572-A24B-BE9C-5F1BD4521B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40740" yWindow="500" windowWidth="29360" windowHeight="21100" activeTab="2" xr2:uid="{6C071CEF-E8B8-6F45-8AC6-4D845A53AE75}"/>
+    <workbookView xWindow="38680" yWindow="500" windowWidth="29000" windowHeight="18620" activeTab="7" xr2:uid="{6C071CEF-E8B8-6F45-8AC6-4D845A53AE75}"/>
   </bookViews>
   <sheets>
     <sheet name="model" sheetId="6" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="557">
   <si>
     <t>メニュー名</t>
   </si>
@@ -2127,6 +2127,71 @@
 "内容説明": "メニュー内容の説明。記載がなければ'null'とする",
 "価格": "メニューに対応した価格",
 }]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>点数: -1</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">テンスウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"ダイナソー1ポンドカットステーキ"の間違い</t>
+    <rPh sb="19" eb="21">
+      <t xml:space="preserve">マチガイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明がうまく取得できていない</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">セツメイガ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニュー名に創作</t>
+    <rPh sb="6" eb="8">
+      <t xml:space="preserve">ソウサク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まちまちに取得されている</t>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">シュトクサレテイル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニュー名に創作が多い</t>
+    <rPh sb="6" eb="8">
+      <t xml:space="preserve">ソウサクガ </t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t xml:space="preserve">オオイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニュー名、説明文共に創作が多い</t>
+    <rPh sb="6" eb="9">
+      <t xml:space="preserve">セツメイブン </t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t xml:space="preserve">トモニ </t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t xml:space="preserve">ソウサクガ </t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t xml:space="preserve">オオイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gpt-4o-miniに画像をそのまま渡す方法は、まちまちにか取得されない、創作が多いといった問題点がある</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2446,7 +2511,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2617,6 +2682,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2955,7 +3029,7 @@
   <dimension ref="B2:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -3013,8 +3087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A52E75C-E5A3-1940-86E5-066300C04D83}">
   <dimension ref="B3:V12"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -3176,8 +3250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CAAC7F0-FA4F-3142-8049-AB09B393D69A}">
   <dimension ref="C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -3201,10 +3275,10 @@
   <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="H7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:P1"/>
+      <selection pane="bottomRight" activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -3714,6 +3788,7 @@
       <c r="J12" s="3" t="s">
         <v>39</v>
       </c>
+      <c r="L12" s="58"/>
     </row>
     <row r="13" spans="1:16" ht="22" thickBot="1">
       <c r="A13" s="25">
@@ -3737,6 +3812,10 @@
       <c r="J13" s="6" t="s">
         <v>24</v>
       </c>
+      <c r="L13" s="59"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="L14" s="57"/>
     </row>
     <row r="15" spans="1:16" ht="42">
       <c r="C15" s="1" t="s">
@@ -3748,28 +3827,40 @@
       <c r="I15" s="1" t="s">
         <v>319</v>
       </c>
+      <c r="L15" s="58" t="s">
+        <v>550</v>
+      </c>
+      <c r="O15" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="16" spans="1:16" ht="21">
       <c r="C16" s="1" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="17" spans="3:9" ht="21">
+      <c r="O16" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12" ht="21">
       <c r="C17" s="1" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="18" spans="3:9" ht="21">
+      <c r="L17" s="57" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" ht="21">
       <c r="C18" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="19" spans="3:9" ht="21">
+    <row r="19" spans="3:12" ht="21">
       <c r="C19" s="1" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="21" spans="3:9">
+    <row r="21" spans="3:12">
       <c r="C21" s="26" t="s">
         <v>427</v>
       </c>
@@ -3791,10 +3882,10 @@
   <dimension ref="A1:N92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="E16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I2" sqref="I2:N3"/>
+      <selection pane="bottomRight" activeCell="I38" sqref="I38:I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -3918,23 +4009,20 @@
       <c r="G4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4" t="s">
-        <v>1</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>2</v>
+      <c r="I4" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="50">
+        <v>638</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="M4" t="s">
-        <v>1</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>2</v>
+        <v>111</v>
+      </c>
+      <c r="N4" s="3">
+        <v>902</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -3960,19 +4048,19 @@
         <v>47</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" t="s">
+        <v>466</v>
+      </c>
+      <c r="J5" s="59" t="s">
         <v>7</v>
       </c>
       <c r="K5" s="3">
-        <v>638</v>
+        <v>693</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="N5" s="3">
-        <v>902</v>
+        <v>935</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -3998,16 +4086,16 @@
         <v>47</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="J6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="3">
-        <v>693</v>
+        <v>467</v>
+      </c>
+      <c r="J6" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>113</v>
+        <v>484</v>
       </c>
       <c r="N6" s="3">
         <v>935</v>
@@ -4036,19 +4124,19 @@
         <v>50</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="J7" t="s">
+        <v>468</v>
+      </c>
+      <c r="J7" s="59" t="s">
         <v>7</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N7" s="3">
-        <v>935</v>
+        <v>990</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -4074,19 +4162,19 @@
         <v>47</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="J8" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>7</v>
+        <v>51</v>
+      </c>
+      <c r="J8" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="3">
+        <v>528</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="N8" s="3">
-        <v>990</v>
+        <v>880</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -4112,19 +4200,19 @@
         <v>47</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="J9" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" s="3">
-        <v>528</v>
+        <v>53</v>
+      </c>
+      <c r="J9" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="N9" s="3">
-        <v>880</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -4150,19 +4238,19 @@
         <v>55</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="J10" t="s">
+        <v>54</v>
+      </c>
+      <c r="J10" s="59" t="s">
         <v>7</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>7</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="N10" s="3">
-        <v>1080</v>
+        <v>792</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -4188,16 +4276,16 @@
         <v>57</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="J11" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>7</v>
+        <v>56</v>
+      </c>
+      <c r="J11" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" s="3">
+        <v>440</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="N11" s="3">
         <v>792</v>
@@ -4226,19 +4314,19 @@
         <v>59</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="J12" t="s">
+        <v>58</v>
+      </c>
+      <c r="J12" s="59" t="s">
         <v>7</v>
       </c>
       <c r="K12" s="3">
-        <v>440</v>
+        <v>506</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>489</v>
+        <v>127</v>
       </c>
       <c r="N12" s="3">
-        <v>792</v>
+        <v>660</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -4264,19 +4352,19 @@
         <v>61</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="J13" t="s">
+        <v>469</v>
+      </c>
+      <c r="J13" s="59" t="s">
         <v>7</v>
       </c>
       <c r="K13" s="3">
-        <v>506</v>
+        <v>627</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="N13" s="3">
-        <v>660</v>
+        <v>748</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -4302,19 +4390,19 @@
         <v>45</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>469</v>
-      </c>
-      <c r="J14" t="s">
+        <v>63</v>
+      </c>
+      <c r="J14" s="59" t="s">
         <v>7</v>
       </c>
       <c r="K14" s="3">
-        <v>627</v>
+        <v>693</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>129</v>
+        <v>490</v>
       </c>
       <c r="N14" s="3">
-        <v>748</v>
+        <v>770</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -4340,19 +4428,19 @@
         <v>50</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="J15" t="s">
-        <v>7</v>
-      </c>
-      <c r="K15" s="3">
-        <v>693</v>
+        <v>470</v>
+      </c>
+      <c r="J15" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="N15" s="3">
-        <v>770</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -4378,19 +4466,19 @@
         <v>47</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="J16" t="s">
+        <v>471</v>
+      </c>
+      <c r="J16" s="59" t="s">
         <v>7</v>
       </c>
       <c r="K16" s="3" t="s">
         <v>7</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="N16" s="3">
-        <v>2800</v>
+        <v>880</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -4416,19 +4504,19 @@
         <v>66</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="J17" t="s">
-        <v>7</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>7</v>
+        <v>472</v>
+      </c>
+      <c r="J17" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="K17" s="3">
+        <v>594</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="N17" s="3">
-        <v>880</v>
+        <v>930</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -4454,19 +4542,19 @@
         <v>68</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="J18" t="s">
+        <v>473</v>
+      </c>
+      <c r="J18" s="59" t="s">
         <v>7</v>
       </c>
       <c r="K18" s="3">
-        <v>594</v>
+        <v>429</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>493</v>
+        <v>140</v>
       </c>
       <c r="N18" s="3">
-        <v>930</v>
+        <v>480</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -4492,19 +4580,19 @@
         <v>55</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="J19" t="s">
-        <v>7</v>
-      </c>
-      <c r="K19" s="3">
-        <v>429</v>
+        <v>474</v>
+      </c>
+      <c r="J19" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="N19" s="3">
-        <v>480</v>
+        <v>850</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -4530,16 +4618,16 @@
         <v>72</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="J20" t="s">
-        <v>7</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>7</v>
+        <v>73</v>
+      </c>
+      <c r="J20" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="K20" s="3">
+        <v>407</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="N20" s="3">
         <v>850</v>
@@ -4568,19 +4656,19 @@
         <v>57</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="J21" t="s">
+        <v>75</v>
+      </c>
+      <c r="J21" s="59" t="s">
         <v>7</v>
       </c>
       <c r="K21" s="3">
-        <v>407</v>
+        <v>858</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>144</v>
+        <v>494</v>
       </c>
       <c r="N21" s="3">
-        <v>850</v>
+        <v>750</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -4606,19 +4694,19 @@
         <v>74</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="J22" t="s">
+        <v>475</v>
+      </c>
+      <c r="J22" s="59" t="s">
         <v>7</v>
       </c>
       <c r="K22" s="3">
-        <v>858</v>
+        <v>594</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="N22" s="3">
-        <v>750</v>
+        <v>850</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -4644,22 +4732,22 @@
         <v>76</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="J23" t="s">
+        <v>476</v>
+      </c>
+      <c r="J23" s="59" t="s">
         <v>7</v>
       </c>
       <c r="K23" s="3">
-        <v>594</v>
+        <v>858</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>495</v>
+        <v>151</v>
       </c>
       <c r="N23" s="3">
         <v>850</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" ht="21" thickBot="1">
       <c r="A24" s="25">
         <v>21</v>
       </c>
@@ -4682,22 +4770,23 @@
         <v>55</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="J24" t="s">
+        <v>477</v>
+      </c>
+      <c r="J24" s="59" t="s">
         <v>7</v>
       </c>
       <c r="K24" s="3">
         <v>858</v>
       </c>
-      <c r="L24" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="N24" s="3">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="21" thickBot="1">
+      <c r="L24" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="M24" s="9"/>
+      <c r="N24" s="6">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="25">
         <v>22</v>
       </c>
@@ -4720,20 +4809,13 @@
         <v>79</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="J25" t="s">
+        <v>478</v>
+      </c>
+      <c r="J25" s="59" t="s">
         <v>7</v>
       </c>
       <c r="K25" s="3">
-        <v>858</v>
-      </c>
-      <c r="L25" s="8" t="s">
-        <v>496</v>
-      </c>
-      <c r="M25" s="9"/>
-      <c r="N25" s="6">
-        <v>2800</v>
+        <v>693</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -4759,13 +4841,13 @@
         <v>76</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="J26" t="s">
+        <v>479</v>
+      </c>
+      <c r="J26" s="59" t="s">
         <v>7</v>
       </c>
       <c r="K26" s="3">
-        <v>693</v>
+        <v>638</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -4791,13 +4873,13 @@
         <v>82</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="J27" t="s">
+        <v>165</v>
+      </c>
+      <c r="J27" s="59" t="s">
         <v>7</v>
       </c>
       <c r="K27" s="3">
-        <v>638</v>
+        <v>748</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -4823,13 +4905,13 @@
         <v>82</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="J28" t="s">
-        <v>7</v>
-      </c>
-      <c r="K28" s="3">
-        <v>748</v>
+        <v>166</v>
+      </c>
+      <c r="J28" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -4855,9 +4937,9 @@
         <v>61</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="J29" t="s">
+        <v>480</v>
+      </c>
+      <c r="J29" s="59" t="s">
         <v>7</v>
       </c>
       <c r="K29" s="3" t="s">
@@ -4887,13 +4969,13 @@
         <v>68</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="J30" t="s">
-        <v>7</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>7</v>
+        <v>134</v>
+      </c>
+      <c r="J30" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="K30" s="3">
+        <v>2800</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -4919,13 +5001,13 @@
         <v>68</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="J31" t="s">
-        <v>7</v>
-      </c>
-      <c r="K31" s="3">
-        <v>2800</v>
+        <v>481</v>
+      </c>
+      <c r="J31" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -4951,13 +5033,13 @@
         <v>90</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="J32" t="s">
-        <v>7</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>7</v>
+        <v>482</v>
+      </c>
+      <c r="J32" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="K32" s="3">
+        <v>850</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -4983,9 +5065,9 @@
         <v>61</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="J33" t="s">
+        <v>151</v>
+      </c>
+      <c r="J33" s="59" t="s">
         <v>7</v>
       </c>
       <c r="K33" s="3">
@@ -5015,16 +5097,16 @@
         <v>93</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="J34" t="s">
+        <v>483</v>
+      </c>
+      <c r="J34" s="59" t="s">
         <v>7</v>
       </c>
       <c r="K34" s="3">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="21" thickBot="1">
       <c r="A35" s="25">
         <v>32</v>
       </c>
@@ -5046,14 +5128,14 @@
       <c r="G35" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I35" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="J35" t="s">
-        <v>7</v>
-      </c>
-      <c r="K35" s="3">
-        <v>950</v>
+      <c r="I35" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K35" s="6">
+        <v>750</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -5078,15 +5160,6 @@
       <c r="G36" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I36" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="J36" t="s">
-        <v>7</v>
-      </c>
-      <c r="K36" s="3">
-        <v>750</v>
-      </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="25">
@@ -5110,17 +5183,8 @@
       <c r="G37" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="I37" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J37" t="s">
-        <v>7</v>
-      </c>
-      <c r="K37" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="21" thickBot="1">
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="25">
         <v>35</v>
       </c>
@@ -5142,14 +5206,8 @@
       <c r="G38" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I38" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="J38" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="K38" s="6" t="s">
-        <v>7</v>
+      <c r="I38" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -5173,6 +5231,9 @@
       </c>
       <c r="G39" s="3" t="s">
         <v>45</v>
+      </c>
+      <c r="I39" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -6126,10 +6187,10 @@
   <dimension ref="A1:P53"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K2" sqref="K2:P3"/>
+      <selection pane="bottomRight" activeCell="L47" sqref="L47:L48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -6141,6 +6202,7 @@
     <col min="6" max="6" width="30.28515625" style="1" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
     <col min="9" max="9" width="30.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" customWidth="1"/>
     <col min="12" max="12" width="31.5703125" customWidth="1"/>
     <col min="13" max="13" width="12" customWidth="1"/>
     <col min="14" max="14" width="17.85546875" customWidth="1"/>
@@ -7230,7 +7292,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="21">
+    <row r="33" spans="1:12" ht="21">
       <c r="A33">
         <v>30</v>
       </c>
@@ -7244,7 +7306,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="21">
+    <row r="34" spans="1:12" ht="21">
       <c r="A34">
         <v>31</v>
       </c>
@@ -7258,7 +7320,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="21">
+    <row r="35" spans="1:12" ht="21">
       <c r="A35">
         <v>32</v>
       </c>
@@ -7272,7 +7334,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="21">
+    <row r="36" spans="1:12" ht="21">
       <c r="A36">
         <v>33</v>
       </c>
@@ -7286,7 +7348,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="21">
+    <row r="37" spans="1:12" ht="21">
       <c r="A37">
         <v>34</v>
       </c>
@@ -7300,7 +7362,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="21">
+    <row r="38" spans="1:12" ht="21">
       <c r="A38">
         <v>35</v>
       </c>
@@ -7314,7 +7376,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="21">
+    <row r="39" spans="1:12" ht="21">
       <c r="A39">
         <v>36</v>
       </c>
@@ -7328,7 +7390,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="21">
+    <row r="40" spans="1:12" ht="21">
       <c r="A40">
         <v>37</v>
       </c>
@@ -7342,7 +7404,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="21">
+    <row r="41" spans="1:12" ht="21">
       <c r="A41">
         <v>38</v>
       </c>
@@ -7356,7 +7418,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="21">
+    <row r="42" spans="1:12" ht="21">
       <c r="A42">
         <v>39</v>
       </c>
@@ -7370,7 +7432,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="22" thickBot="1">
+    <row r="43" spans="1:12" ht="22" thickBot="1">
       <c r="A43">
         <v>40</v>
       </c>
@@ -7384,12 +7446,12 @@
         <v>600</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:12">
       <c r="C46" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="63">
+    <row r="47" spans="1:12" ht="63">
       <c r="C47" t="s">
         <v>355</v>
       </c>
@@ -7399,8 +7461,11 @@
       <c r="I47" s="1" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" ht="21">
+      <c r="L47" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="21">
       <c r="C48" s="1" t="s">
         <v>356</v>
       </c>
@@ -7409,6 +7474,9 @@
       </c>
       <c r="I48" t="s">
         <v>357</v>
+      </c>
+      <c r="L48" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="49" spans="3:9" ht="105">
@@ -7454,10 +7522,10 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomRight" activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -8058,6 +8126,9 @@
         <v>376</v>
       </c>
       <c r="J15"/>
+      <c r="K15" t="s">
+        <v>553</v>
+      </c>
     </row>
     <row r="16" spans="1:16">
       <c r="B16" t="s">
@@ -8071,6 +8142,9 @@
         <v>379</v>
       </c>
       <c r="J16"/>
+      <c r="K16" t="s">
+        <v>555</v>
+      </c>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" t="s">
@@ -8205,10 +8279,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0EF258F-7E2D-2B44-BF98-276CC585C103}">
-  <dimension ref="B4:I8"/>
+  <dimension ref="B4:I10"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -8293,6 +8367,11 @@
         <v>430</v>
       </c>
     </row>
+    <row r="10" spans="2:9">
+      <c r="I10" t="s">
+        <v>556</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
